--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,70 +58,70 @@
     <t>panic</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>confidence</t>
   </si>
   <si>
     <t>heroes</t>
@@ -694,10 +694,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>0.9777777777777777</v>
@@ -826,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -876,7 +876,7 @@
         <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>0.8632478632478633</v>
@@ -926,7 +926,7 @@
         <v>156</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>0.8454545454545455</v>
@@ -976,7 +976,7 @@
         <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
         <v>0.8125</v>
@@ -1026,7 +1026,7 @@
         <v>442</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8">
         <v>0.7952755905511811</v>
@@ -1055,28 +1055,28 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.08280254777070063</v>
+        <v>0.008461131676361713</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="E9">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F9">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>144</v>
+        <v>1875</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9">
         <v>0.7579617834394905</v>
@@ -1101,32 +1101,8 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.008461131676361713</v>
-      </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>268</v>
-      </c>
-      <c r="E10">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F10">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1875</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10">
         <v>0.7543859649122807</v>
@@ -1152,7 +1128,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
         <v>0.7419354838709677</v>
@@ -1178,7 +1154,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12">
         <v>0.7307692307692307</v>
@@ -1204,7 +1180,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13">
         <v>0.7301587301587301</v>
@@ -1230,85 +1206,85 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.6767241379310345</v>
+        <v>0.6732673267326733</v>
       </c>
       <c r="L14">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="M14">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="N14">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O14">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.6732673267326733</v>
+        <v>0.6642857142857143</v>
       </c>
       <c r="L15">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="M15">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="N15">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6642857142857143</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L16">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="M16">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="N16">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17">
         <v>0.6388888888888888</v>
@@ -1334,7 +1310,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18">
         <v>0.6296296296296297</v>
@@ -1360,7 +1336,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19">
         <v>0.5934065934065934</v>
@@ -1386,7 +1362,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20">
         <v>0.578125</v>
@@ -1412,7 +1388,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21">
         <v>0.5714285714285714</v>
@@ -1438,28 +1414,28 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5596330275229358</v>
+        <v>0.538235294117647</v>
       </c>
       <c r="L22">
         <v>183</v>
       </c>
       <c r="M22">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="N22">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -2764,7 +2740,7 @@
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K73">
         <v>0.1184767277856135</v>
